--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83BC9C6-A2C6-44B5-B73B-856F5D4B347D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B70E3-C642-4AB9-86CB-72E59BA07A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="cmsc-150-schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
   <si>
-    <t>Understanding and setting up your system</t>
-  </si>
-  <si>
-    <t>Drawing with Python, repl.it practice problems</t>
-  </si>
-  <si>
     <t>Lab 2 - Drawing</t>
   </si>
   <si>
@@ -266,6 +259,33 @@
   </si>
   <si>
     <t>Lab 12, all repl's</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>Using Discord for help</t>
+  </si>
+  <si>
+    <t>Chapter 1, why learn programming?</t>
+  </si>
+  <si>
+    <t>Chapter 2, understanding and setting up your systme.</t>
+  </si>
+  <si>
+    <t>Chapter 3, version control systems</t>
+  </si>
+  <si>
+    <t>Chapter 4, Drawing with Python, repl.it practice problems</t>
+  </si>
+  <si>
+    <t>Continue with unfinished items from Monday</t>
+  </si>
+  <si>
+    <t>Have Discord, PyCharm, Python, and Git installed</t>
+  </si>
+  <si>
+    <t>Drop by Thursday office hours</t>
   </si>
 </sst>
 </file>
@@ -621,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,13 +655,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -649,553 +669,537 @@
         <v>44067</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>44069</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44070</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>44071</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <f>A2+7</f>
         <v>44074</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <f t="shared" ref="A7:A58" si="0">A3+7</f>
-        <v>44076</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>44077</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>44078</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>44081</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>44083</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>44084</v>
+        <f>A7+7</f>
+        <v>44076</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>44085</v>
+        <f t="shared" ref="A12:A63" si="0">A9+7</f>
+        <v>44077</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>44088</v>
+        <v>44078</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>44090</v>
+        <v>44081</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>44091</v>
+        <v>44083</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>44095</v>
+        <v>44085</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44088</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44090</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44091</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>44102</v>
+        <v>44092</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44097</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44098</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>44109</v>
+        <v>44099</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>44111</v>
+        <v>44102</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44104</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44105</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>44116</v>
+        <v>44106</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f>A27+7</f>
-        <v>44118</v>
+        <f t="shared" si="0"/>
+        <v>44109</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>44119</v>
+        <v>44111</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>44120</v>
+        <v>44112</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>44123</v>
+        <v>44113</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44116</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>44126</v>
+        <f>A32+7</f>
+        <v>44118</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>44130</v>
+        <v>44120</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>44132</v>
+        <v>44123</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44125</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44126</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <f>A38+7</f>
-        <v>44137</v>
+        <f t="shared" si="0"/>
+        <v>44127</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>44139</v>
+        <v>44130</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44132</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>44141</v>
+        <v>44133</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>44144</v>
+        <v>44134</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>44146</v>
+        <f>A43+7</f>
+        <v>44137</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>44147</v>
+        <v>44139</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>44151</v>
+        <v>44141</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
-        <v>44153</v>
+        <v>44144</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
-        <v>44154</v>
+        <v>44146</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
-        <v>44155</v>
+        <v>44147</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
-        <v>44158</v>
+        <v>44148</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
-        <v>44160</v>
+        <v>44151</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
-        <v>44161</v>
+        <v>44153</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -1204,39 +1208,90 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
-        <v>44162</v>
+        <v>44154</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
-        <v>44165</v>
+        <v>44155</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <f>A58+1</f>
+        <f t="shared" si="0"/>
+        <v>44158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>44160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>44161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f>A63+1</f>
         <v>44166</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
+      <c r="C65" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B70E3-C642-4AB9-86CB-72E59BA07A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38A4DE-B6D3-4596-92C2-8CCCBE35DE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>Chapter 1, why learn programming?</t>
   </si>
   <si>
-    <t>Chapter 2, understanding and setting up your systme.</t>
-  </si>
-  <si>
     <t>Chapter 3, version control systems</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Drop by Thursday office hours</t>
+  </si>
+  <si>
+    <t>Chapter 2, understanding and setting up your system</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,13 +687,13 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -701,18 +701,18 @@
         <v>44069</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" ref="A12:A63" si="0">A9+7</f>
+        <f t="shared" ref="A13:A63" si="0">A9+7</f>
         <v>44077</v>
       </c>
       <c r="B13" t="s">

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38A4DE-B6D3-4596-92C2-8CCCBE35DE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD6314-6ACE-4876-BEB7-23E031C9FED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -282,10 +282,10 @@
     <t>Have Discord, PyCharm, Python, and Git installed</t>
   </si>
   <si>
-    <t>Drop by Thursday office hours</t>
-  </si>
-  <si>
     <t>Chapter 2, understanding and setting up your system</t>
+  </si>
+  <si>
+    <t>Drop by Wed evening office hours if needed</t>
   </si>
 </sst>
 </file>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,7 +679,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>44069</v>
+      </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -687,7 +689,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -697,23 +699,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44069</v>
-      </c>
       <c r="B7" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -722,535 +715,535 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44071</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="A10" s="1"/>
+      <c r="C10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <f>A2+7</f>
         <v>44074</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <f>A7+7</f>
-        <v>44076</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:A63" si="0">A9+7</f>
-        <v>44077</v>
+        <f>A4+7</f>
+        <v>44076</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>44078</v>
+        <f>A9+7</f>
+        <v>44077</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>44081</v>
+        <f t="shared" ref="A15:A64" si="0">A11+7</f>
+        <v>44078</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>44095</v>
+        <v>44092</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>44102</v>
+        <v>44099</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>44109</v>
+        <v>44106</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f>A32+7</f>
-        <v>44118</v>
+        <f t="shared" si="0"/>
+        <v>44116</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>44119</v>
+        <f>A33+7</f>
+        <v>44118</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>44123</v>
+        <v>44120</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>44130</v>
+        <v>44127</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <f>A43+7</f>
-        <v>44137</v>
+        <f t="shared" si="0"/>
+        <v>44134</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>44139</v>
+        <f>A44+7</f>
+        <v>44137</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
-        <v>44144</v>
+        <v>44141</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
@@ -1259,7 +1252,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -1268,29 +1261,38 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
-        <v>44165</v>
+        <v>44162</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <f>A63+1</f>
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <f>A64+1</f>
         <v>44166</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>48</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>51</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>77</v>
       </c>
     </row>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD6314-6ACE-4876-BEB7-23E031C9FED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDADD6A-E94F-417F-BD08-EF34AB41C3EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Chapter 3, version control systems</t>
   </si>
   <si>
-    <t>Chapter 4, Drawing with Python, repl.it practice problems</t>
-  </si>
-  <si>
     <t>Continue with unfinished items from Monday</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>Drop by Wed evening office hours if needed</t>
+  </si>
+  <si>
+    <t>Chapter 5, Drawing with Python</t>
+  </si>
+  <si>
+    <t>Chapter 4, The Print Function</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +692,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -700,12 +703,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -716,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -730,7 +733,7 @@
         <v>44071</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -739,520 +742,516 @@
         <v>44074</v>
       </c>
       <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <f>A4+7</f>
         <v>44076</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <f>A9+7</f>
         <v>44077</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <f t="shared" ref="A15:A64" si="0">A11+7</f>
-        <v>44078</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>44081</v>
+        <f>A11+7</f>
+        <v>44078</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>44083</v>
+        <f>A12+7</f>
+        <v>44081</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>44084</v>
+        <f t="shared" ref="A16:A65" si="0">A14+7</f>
+        <v>44083</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>44095</v>
+        <v>44092</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>44102</v>
+        <v>44099</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>44109</v>
+        <v>44106</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f>A33+7</f>
-        <v>44118</v>
+        <f t="shared" si="0"/>
+        <v>44116</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>44119</v>
+        <f>A34+7</f>
+        <v>44118</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>44123</v>
+        <v>44120</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>44130</v>
+        <v>44127</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <f>A44+7</f>
-        <v>44137</v>
+        <f t="shared" si="0"/>
+        <v>44134</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>44139</v>
+        <f>A45+7</f>
+        <v>44137</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
-        <v>44144</v>
+        <v>44141</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -1261,7 +1260,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -1270,29 +1269,38 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
-        <v>44165</v>
+        <v>44162</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <f>A64+1</f>
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <f>A65+1</f>
         <v>44166</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>48</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>51</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>77</v>
       </c>
     </row>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDADD6A-E94F-417F-BD08-EF34AB41C3EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3EF64-C597-4AB0-A498-FC54AE1D3611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -33,15 +33,6 @@
     <t>Lab 2 - Drawing</t>
   </si>
   <si>
-    <t>Variables and Expressions</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Drawing with Functions / repl.it 02</t>
-  </si>
-  <si>
     <t>Lab 3 - Drawing with Functions</t>
   </si>
   <si>
@@ -289,6 +280,15 @@
   </si>
   <si>
     <t>Chapter 4, The Print Function</t>
+  </si>
+  <si>
+    <t>Chapter 7, Variables and Expressions</t>
+  </si>
+  <si>
+    <t>Chapter 8, Functions</t>
+  </si>
+  <si>
+    <t>Chapter 9, Drawing with Functions / repl.it 02</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,13 +658,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,13 +672,13 @@
         <v>44067</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -686,29 +686,29 @@
         <v>44069</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>44071</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -742,15 +742,15 @@
         <v>44074</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>44076</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>44078</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -789,19 +789,19 @@
         <v>44081</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" ref="A16:A65" si="0">A14+7</f>
+        <f t="shared" ref="A18:A65" si="0">A14+7</f>
         <v>44083</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,10 +810,10 @@
         <v>44084</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>44085</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -831,10 +831,10 @@
         <v>44088</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -843,7 +843,7 @@
         <v>44090</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -852,10 +852,10 @@
         <v>44091</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -864,7 +864,7 @@
         <v>44092</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -873,10 +873,10 @@
         <v>44095</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>44097</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -894,10 +894,10 @@
         <v>44098</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
         <v>44099</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -915,10 +915,10 @@
         <v>44102</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +927,7 @@
         <v>44104</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -936,10 +936,10 @@
         <v>44105</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -948,7 +948,7 @@
         <v>44106</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -957,7 +957,7 @@
         <v>44109</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
         <v>44111</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -975,10 +975,10 @@
         <v>44112</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -987,7 +987,7 @@
         <v>44113</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -996,10 +996,10 @@
         <v>44116</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
         <v>44118</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1017,10 +1017,10 @@
         <v>44119</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
         <v>44120</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1038,10 +1038,10 @@
         <v>44123</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>44125</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1059,10 +1059,10 @@
         <v>44126</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
         <v>44127</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,7 +1080,7 @@
         <v>44130</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1089,7 +1089,7 @@
         <v>44132</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1098,10 +1098,10 @@
         <v>44133</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>44134</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1119,10 +1119,10 @@
         <v>44137</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1131,7 +1131,7 @@
         <v>44139</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1140,10 +1140,10 @@
         <v>44140</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
         <v>44141</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1161,10 +1161,10 @@
         <v>44144</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1173,7 +1173,7 @@
         <v>44146</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1182,10 +1182,10 @@
         <v>44147</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>44148</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1203,7 +1203,7 @@
         <v>44151</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1212,7 +1212,7 @@
         <v>44153</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1221,10 +1221,10 @@
         <v>44154</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1233,7 +1233,7 @@
         <v>44155</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,10 +1242,10 @@
         <v>44158</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1254,7 +1254,7 @@
         <v>44160</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>44161</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1272,7 +1272,7 @@
         <v>44162</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>44165</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1290,18 +1290,18 @@
         <v>44166</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
         <v>48</v>
       </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3EF64-C597-4AB0-A498-FC54AE1D3611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F46BC-7B41-40FD-AAA3-D187AEBB5071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -288,7 +288,10 @@
     <t>Chapter 8, Functions</t>
   </si>
   <si>
-    <t>Chapter 9, Drawing with Functions / repl.it 02</t>
+    <t>No class, protest</t>
+  </si>
+  <si>
+    <t>Chapter 9, Drawing with Functions / If statements</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,90 +747,91 @@
       <c r="B12" t="s">
         <v>85</v>
       </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f>A4+7</f>
+        <v>44076</v>
+      </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f>A4+7</f>
-        <v>44076</v>
+        <f>A9+7</f>
+        <v>44077</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f>A9+7</f>
-        <v>44077</v>
+        <f>A11+7</f>
+        <v>44078</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f>A11+7</f>
-        <v>44078</v>
+        <f>A12+7</f>
+        <v>44081</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f>A12+7</f>
-        <v>44081</v>
+        <f t="shared" ref="A17:A65" si="0">A13+7</f>
+        <v>44083</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:A65" si="0">A14+7</f>
-        <v>44083</v>
+        <f t="shared" si="0"/>
+        <v>44084</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>44085</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f>A16+7</f>
         <v>44088</v>
       </c>
       <c r="B21" t="s">
@@ -839,7 +843,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f>A17+7</f>
         <v>44090</v>
       </c>
       <c r="B22" t="s">
@@ -848,7 +852,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f>A18+7</f>
         <v>44091</v>
       </c>
       <c r="B23" t="s">
@@ -860,7 +864,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f>A19+7</f>
         <v>44092</v>
       </c>
       <c r="B24" t="s">

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F46BC-7B41-40FD-AAA3-D187AEBB5071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D684A-0D14-43F7-A45D-76B601D295E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Sound effects / Sprites and collisions</t>
   </si>
   <si>
-    <t>Lab 7 - User control of games</t>
-  </si>
-  <si>
     <t>Sprites and collisions / Moving sprites</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Work on repl.it</t>
   </si>
   <si>
-    <t>Lab 8 - Sprites</t>
-  </si>
-  <si>
     <t>Sprites and walls / placement and collision</t>
   </si>
   <si>
@@ -132,33 +126,18 @@
     <t>Lab 12 - Final lab, part 1</t>
   </si>
   <si>
-    <t>Insertion sort / Sorting worksheet</t>
-  </si>
-  <si>
     <t>Print formatting / Exceptions</t>
   </si>
   <si>
-    <t>Stuff you should know, Part 1</t>
-  </si>
-  <si>
     <t>Lab 12 - Final lab, part 2</t>
   </si>
   <si>
-    <t>Stuff you should know, Part 2</t>
-  </si>
-  <si>
     <t>Recursion</t>
   </si>
   <si>
-    <t>Work on final lab</t>
-  </si>
-  <si>
     <t>Thanksgiving Break</t>
   </si>
   <si>
-    <t>Work on quantitative reasining assignment</t>
-  </si>
-  <si>
     <t>Quantitative Reasoning Assignment</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
     <t>Reading Day</t>
   </si>
   <si>
-    <t>Work on final lab (via zoom)</t>
-  </si>
-  <si>
     <t>Show off final projects, no test</t>
   </si>
   <si>
@@ -240,18 +216,9 @@
     <t>Lab 9 @ 2:40 pm</t>
   </si>
   <si>
-    <t>Lab 11 @ 2:40 pm</t>
-  </si>
-  <si>
     <t>Lab 10 @ 2:40 pm</t>
   </si>
   <si>
-    <t>QR Assignment @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 12, all repl's</t>
-  </si>
-  <si>
     <t>Syllabus</t>
   </si>
   <si>
@@ -292,6 +259,27 @@
   </si>
   <si>
     <t>Chapter 9, Drawing with Functions / If statements</t>
+  </si>
+  <si>
+    <t>(Skipped Lab 7 - User control of games) Lab 8 - Sprites</t>
+  </si>
+  <si>
+    <t>Sorting Worksheet</t>
+  </si>
+  <si>
+    <t>Insertion sort / Explain final lab</t>
+  </si>
+  <si>
+    <t>No class - work on final lab</t>
+  </si>
+  <si>
+    <t>Lab 12, all repl's, Demo for class part 3</t>
+  </si>
+  <si>
+    <t>Lab 11 @ 2:40 pm, Sorting worksheet, Demo part 1</t>
+  </si>
+  <si>
+    <t>Demo part 2</t>
   </si>
 </sst>
 </file>
@@ -649,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,13 +649,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -675,13 +663,13 @@
         <v>44067</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,29 +677,29 @@
         <v>44069</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -736,7 +724,7 @@
         <v>44071</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -745,10 +733,10 @@
         <v>44074</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -757,7 +745,7 @@
         <v>44076</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -769,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -778,7 +766,7 @@
         <v>44078</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -787,10 +775,10 @@
         <v>44081</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -811,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -838,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -859,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -880,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -901,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -952,7 +940,7 @@
         <v>44106</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -961,7 +949,7 @@
         <v>44109</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -970,7 +958,7 @@
         <v>44111</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -979,10 +967,10 @@
         <v>44112</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,7 +979,7 @@
         <v>44113</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1000,10 +988,10 @@
         <v>44116</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1012,7 +1000,7 @@
         <v>44118</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1021,10 +1009,10 @@
         <v>44119</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1033,7 +1021,7 @@
         <v>44120</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1042,10 +1030,10 @@
         <v>44123</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1054,7 +1042,7 @@
         <v>44125</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1063,10 +1051,10 @@
         <v>44126</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1075,7 +1063,7 @@
         <v>44127</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,7 +1072,7 @@
         <v>44130</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1093,7 +1081,7 @@
         <v>44132</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1102,10 +1090,10 @@
         <v>44133</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1114,7 +1102,7 @@
         <v>44134</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1123,10 +1111,10 @@
         <v>44137</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,7 +1123,7 @@
         <v>44139</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1144,10 +1132,10 @@
         <v>44140</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1156,7 +1144,7 @@
         <v>44141</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1165,10 +1153,10 @@
         <v>44144</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1177,7 +1165,7 @@
         <v>44146</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1189,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1198,7 +1186,7 @@
         <v>44148</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1207,7 +1195,7 @@
         <v>44151</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1216,7 +1204,7 @@
         <v>44153</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1225,10 +1213,10 @@
         <v>44154</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1237,7 +1225,7 @@
         <v>44155</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1246,10 +1234,10 @@
         <v>44158</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1258,7 +1246,7 @@
         <v>44160</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1267,7 +1255,7 @@
         <v>44161</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1276,7 +1264,7 @@
         <v>44162</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,7 +1273,7 @@
         <v>44165</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1294,18 +1282,18 @@
         <v>44166</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D684A-0D14-43F7-A45D-76B601D295E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8397C1-D672-4F0F-87DB-7BD8293D6357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14860" windowHeight="11100" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
+    <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
   <sheets>
     <sheet name="cmsc-150-schedule" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -36,42 +45,15 @@
     <t>Lab 3 - Drawing with Functions</t>
   </si>
   <si>
-    <t>If statements</t>
-  </si>
-  <si>
-    <t>Loops and random numbers, work on repl 03 conditionals</t>
-  </si>
-  <si>
     <t>Lab 4 - Camel game</t>
   </si>
   <si>
-    <t>Repl.it 04 looping and problems</t>
-  </si>
-  <si>
-    <t>Repl.it 05 advanced looping problems</t>
-  </si>
-  <si>
-    <t>Introduction to lists</t>
-  </si>
-  <si>
     <t>Lab 5 - Loopy lab</t>
   </si>
   <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Classes / work on repl.it 06 lists</t>
-  </si>
-  <si>
     <t>Lab 6 - Text adventure</t>
   </si>
   <si>
-    <t>Window class and user control</t>
-  </si>
-  <si>
-    <t>User control</t>
-  </si>
-  <si>
     <t>Sound effects / Sprites and collisions</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
     <t>Shooting sprites examples</t>
   </si>
   <si>
-    <t>Work on repl.it</t>
-  </si>
-  <si>
     <t>Sprites and walls / placement and collision</t>
   </si>
   <si>
@@ -105,9 +84,6 @@
     <t>Lab 10 - Spell check</t>
   </si>
   <si>
-    <t>Spell check lab, repl.it</t>
-  </si>
-  <si>
     <t>Array-backed grids part 1</t>
   </si>
   <si>
@@ -129,27 +105,12 @@
     <t>Print formatting / Exceptions</t>
   </si>
   <si>
-    <t>Lab 12 - Final lab, part 2</t>
-  </si>
-  <si>
-    <t>Recursion</t>
-  </si>
-  <si>
     <t>Thanksgiving Break</t>
   </si>
   <si>
     <t>Quantitative Reasoning Assignment</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Reading Day</t>
-  </si>
-  <si>
-    <t>Show off final projects, no test</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -174,9 +135,6 @@
     <t>Quiz 5 @ 8 am</t>
   </si>
   <si>
-    <t>Quiz 6 @ 8 am</t>
-  </si>
-  <si>
     <t>Quiz 7 @ 8 am</t>
   </si>
   <si>
@@ -195,91 +153,136 @@
     <t>Lab 2 @ 2:40 pm</t>
   </si>
   <si>
+    <t>Lab 4 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Lab 5 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Lab 7 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Lab 8 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Lab 9 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Lab 10 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>Chapter 5, Drawing with Python</t>
+  </si>
+  <si>
+    <t>Chapter 7, Variables and Expressions</t>
+  </si>
+  <si>
+    <t>Chapter 8, Functions</t>
+  </si>
+  <si>
+    <t>Chapter 9, Drawing with Functions / If statements</t>
+  </si>
+  <si>
+    <t>Sorting Worksheet</t>
+  </si>
+  <si>
+    <t>Insertion sort / Explain final lab</t>
+  </si>
+  <si>
+    <t>Lab 11 @ 2:40 pm, Sorting worksheet, Demo part 1</t>
+  </si>
+  <si>
+    <t>Demo part 2</t>
+  </si>
+  <si>
+    <t>Have PyCharm, Python, and Git installed</t>
+  </si>
+  <si>
+    <t>Looping problems</t>
+  </si>
+  <si>
+    <t>Work on programming problems</t>
+  </si>
+  <si>
+    <t>Fall Break</t>
+  </si>
+  <si>
+    <t>Lab 7 User Control</t>
+  </si>
+  <si>
+    <t>Lab 8 - Sprites</t>
+  </si>
+  <si>
     <t>Lab 3 @ 2:40 pm</t>
   </si>
   <si>
-    <t>Lab 4 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 5 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 6 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 7 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 8 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 9 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Lab 10 @ 2:40 pm</t>
-  </si>
-  <si>
-    <t>Syllabus</t>
-  </si>
-  <si>
-    <t>Using Discord for help</t>
-  </si>
-  <si>
-    <t>Chapter 1, why learn programming?</t>
-  </si>
-  <si>
-    <t>Chapter 3, version control systems</t>
-  </si>
-  <si>
-    <t>Continue with unfinished items from Monday</t>
-  </si>
-  <si>
-    <t>Have Discord, PyCharm, Python, and Git installed</t>
-  </si>
-  <si>
-    <t>Chapter 2, understanding and setting up your system</t>
-  </si>
-  <si>
-    <t>Drop by Wed evening office hours if needed</t>
-  </si>
-  <si>
-    <t>Chapter 5, Drawing with Python</t>
-  </si>
-  <si>
-    <t>Chapter 4, The Print Function</t>
-  </si>
-  <si>
-    <t>Chapter 7, Variables and Expressions</t>
-  </si>
-  <si>
-    <t>Chapter 8, Functions</t>
-  </si>
-  <si>
-    <t>No class, protest</t>
-  </si>
-  <si>
-    <t>Chapter 9, Drawing with Functions / If statements</t>
-  </si>
-  <si>
-    <t>(Skipped Lab 7 - User control of games) Lab 8 - Sprites</t>
-  </si>
-  <si>
-    <t>Sorting Worksheet</t>
-  </si>
-  <si>
-    <t>Insertion sort / Explain final lab</t>
-  </si>
-  <si>
-    <t>No class - work on final lab</t>
-  </si>
-  <si>
-    <t>Lab 12, all repl's, Demo for class part 3</t>
-  </si>
-  <si>
-    <t>Lab 11 @ 2:40 pm, Sorting worksheet, Demo part 1</t>
-  </si>
-  <si>
-    <t>Demo part 2</t>
+    <t>Chapter 1, Why learn programming?</t>
+  </si>
+  <si>
+    <t>Chapter 2, Understanding and setting up your system</t>
+  </si>
+  <si>
+    <t>Chapter 3, Version control systems</t>
+  </si>
+  <si>
+    <t>Chapter 4, The 'print' function</t>
+  </si>
+  <si>
+    <t>Chapter 10, If statements</t>
+  </si>
+  <si>
+    <t>Chapter 5 continued, Chapter 6 what is a programming language</t>
+  </si>
+  <si>
+    <t>Chapter 14, Advanced looping problems</t>
+  </si>
+  <si>
+    <t>Chapter 16, Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 11, For Loops </t>
+  </si>
+  <si>
+    <t>Chapter 12, While loops and Chapter 13, Random numbers</t>
+  </si>
+  <si>
+    <t>Chapter 15, Introduction to lists</t>
+  </si>
+  <si>
+    <t>List problems</t>
+  </si>
+  <si>
+    <t>In-class work on function problems, in-class work on 'if' statement problems</t>
+  </si>
+  <si>
+    <t>Quiz 6 @ 8 am, Lab 6 @ 2:40 pm</t>
+  </si>
+  <si>
+    <t>12/13 1 pm - 3 pm</t>
+  </si>
+  <si>
+    <t>Final time, show off projects</t>
+  </si>
+  <si>
+    <t>Lab 12 - Final lab, part 3</t>
+  </si>
+  <si>
+    <t>Recursion / Work on final lab</t>
+  </si>
+  <si>
+    <t>Work on final lab</t>
+  </si>
+  <si>
+    <t>Chapter 17, Class methods</t>
+  </si>
+  <si>
+    <t>Chapter 19, User control</t>
+  </si>
+  <si>
+    <t>Chapter 18, Using the Window class</t>
   </si>
 </sst>
 </file>
@@ -635,665 +638,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="49.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44067</v>
+        <v>44440</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44069</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>44441</v>
+      </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44442</v>
+      </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44445</v>
+      </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44070</v>
+        <v>44447</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44071</v>
+        <v>44449</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f>A2+7</f>
-        <v>44074</v>
+        <f>A8+7</f>
+        <v>44452</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f>A4+7</f>
-        <v>44076</v>
+        <f t="shared" ref="A13:A17" si="0">A9+7</f>
+        <v>44454</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f>A9+7</f>
-        <v>44077</v>
+        <f t="shared" si="0"/>
+        <v>44455</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f>A11+7</f>
-        <v>44078</v>
+        <f t="shared" si="0"/>
+        <v>44456</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f>A12+7</f>
-        <v>44081</v>
+        <f t="shared" si="0"/>
+        <v>44459</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A65" si="0">A13+7</f>
-        <v>44083</v>
+        <f t="shared" si="0"/>
+        <v>44461</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>44084</v>
+        <f t="shared" ref="A18:A62" si="1">A14+7</f>
+        <v>44462</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>44085</v>
+        <f t="shared" si="1"/>
+        <v>44463</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>44466</v>
+      </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <f>A16+7</f>
-        <v>44088</v>
+        <f t="shared" si="1"/>
+        <v>44468</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <f>A17+7</f>
-        <v>44090</v>
+        <f t="shared" si="1"/>
+        <v>44469</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <f>A18+7</f>
-        <v>44091</v>
+        <f t="shared" si="1"/>
+        <v>44470</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <f>A19+7</f>
-        <v>44092</v>
+        <f t="shared" si="1"/>
+        <v>44473</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>44095</v>
+        <f t="shared" si="1"/>
+        <v>44475</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>44097</v>
+        <f t="shared" si="1"/>
+        <v>44476</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>44098</v>
+        <f t="shared" si="1"/>
+        <v>44477</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>44099</v>
+        <f t="shared" si="1"/>
+        <v>44480</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>44102</v>
+        <f t="shared" si="1"/>
+        <v>44482</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>44104</v>
+        <f t="shared" si="1"/>
+        <v>44483</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>44105</v>
+        <f t="shared" si="1"/>
+        <v>44484</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>44106</v>
+        <f t="shared" si="1"/>
+        <v>44487</v>
       </c>
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>44489</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>44490</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>44494</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>44496</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>44497</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>44498</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>44501</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>44503</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>44504</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>44505</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>44508</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44510</v>
+      </c>
+      <c r="B45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>44109</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>44511</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>44512</v>
+      </c>
+      <c r="B47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>44111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>44112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>44113</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>44515</v>
+      </c>
+      <c r="B48" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>44116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <f>A34+7</f>
-        <v>44118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>44119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>44120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>44123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>44125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>44126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>44127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>44130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>44133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>44134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <f>A45+7</f>
-        <v>44137</v>
+        <f t="shared" si="1"/>
+        <v>44517</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>44139</v>
+        <f t="shared" si="1"/>
+        <v>44518</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>44140</v>
+        <f t="shared" si="1"/>
+        <v>44519</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>44141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>44522</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>44144</v>
+        <f t="shared" si="1"/>
+        <v>44524</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>44146</v>
+        <f t="shared" si="1"/>
+        <v>44525</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>44147</v>
+        <f t="shared" si="1"/>
+        <v>44526</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>44148</v>
+        <f t="shared" si="1"/>
+        <v>44529</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>44151</v>
+        <f t="shared" si="1"/>
+        <v>44531</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>44153</v>
+        <f t="shared" si="1"/>
+        <v>44532</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>44154</v>
+        <f t="shared" si="1"/>
+        <v>44533</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>44155</v>
+        <f t="shared" si="1"/>
+        <v>44536</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>44158</v>
+        <f t="shared" si="1"/>
+        <v>44538</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>44160</v>
+        <f t="shared" si="1"/>
+        <v>44539</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>44161</v>
+      <c r="A63" t="s">
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>44162</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>44165</v>
-      </c>
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <f>A65+1</f>
-        <v>44166</v>
-      </c>
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\projects\syllabi\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8397C1-D672-4F0F-87DB-7BD8293D6357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D71582-9CF8-4F2B-8710-21FB832E79B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -283,6 +274,9 @@
   </si>
   <si>
     <t>Chapter 18, Using the Window class</t>
+  </si>
+  <si>
+    <t>On-line coding problems. Finish lab 1, work with any resubmits.</t>
   </si>
 </sst>
 </file>
@@ -638,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,253 +692,249 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44442</v>
-      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44447</v>
+        <v>44445</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f>A8+7</f>
-        <v>44452</v>
+        <v>44449</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:A17" si="0">A9+7</f>
-        <v>44454</v>
+        <f>A9+7</f>
+        <v>44452</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>44455</v>
+        <f t="shared" ref="A14:A18" si="0">A10+7</f>
+        <v>44454</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>44459</v>
+        <v>44456</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:A62" si="1">A14+7</f>
-        <v>44462</v>
+        <f t="shared" si="0"/>
+        <v>44461</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>44463</v>
+        <f t="shared" ref="A19:A63" si="1">A15+7</f>
+        <v>44462</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>44482</v>
+        <v>44480</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -953,317 +943,326 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>44491</v>
+        <v>44490</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>44494</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>44496</v>
+        <v>44494</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>44501</v>
+        <v>44498</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>44503</v>
+        <v>44501</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>44515</v>
+        <v>44512</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>44522</v>
+        <v>44519</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>44524</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>44536</v>
+        <v>44533</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>44538</v>
+        <v>44536</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f t="shared" si="1"/>
+        <v>44538</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f t="shared" si="1"/>
         <v>44539</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>75</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>76</v>
       </c>
     </row>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D71582-9CF8-4F2B-8710-21FB832E79B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE8462-5641-420E-A760-7241A4EC8D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
+    <workbookView minimized="1" xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
   <sheets>
     <sheet name="cmsc-150-schedule" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Lab 9 - Sprites and walls</t>
   </si>
   <si>
-    <t>Reading in files / linear search</t>
-  </si>
-  <si>
     <t>Binary search</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Chapter 3, Version control systems</t>
   </si>
   <si>
-    <t>Chapter 4, The 'print' function</t>
-  </si>
-  <si>
     <t>Chapter 10, If statements</t>
   </si>
   <si>
@@ -277,6 +271,9 @@
   </si>
   <si>
     <t>On-line coding problems. Finish lab 1, work with any resubmits.</t>
+  </si>
+  <si>
+    <t>Chapter 4, The print function</t>
   </si>
 </sst>
 </file>
@@ -632,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,13 +643,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -660,19 +657,19 @@
         <v>44440</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -680,15 +677,15 @@
         <v>44441</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -701,7 +698,7 @@
         <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -709,7 +706,7 @@
         <v>44445</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -717,10 +714,10 @@
         <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -731,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -739,7 +736,7 @@
         <v>44449</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -748,7 +745,7 @@
         <v>44452</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -757,10 +754,10 @@
         <v>44454</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -772,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -781,7 +778,7 @@
         <v>44456</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -790,7 +787,7 @@
         <v>44459</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -799,10 +796,10 @@
         <v>44461</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -814,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -823,7 +820,7 @@
         <v>44463</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -832,7 +829,7 @@
         <v>44466</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -841,10 +838,10 @@
         <v>44468</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -856,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,7 +862,7 @@
         <v>44470</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -874,7 +871,7 @@
         <v>44473</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -883,10 +880,10 @@
         <v>44475</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -898,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -907,7 +904,7 @@
         <v>44477</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,7 +913,7 @@
         <v>44480</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,10 +922,10 @@
         <v>44482</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -937,7 +934,7 @@
         <v>44483</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -946,19 +943,19 @@
         <v>44484</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>44489</v>
@@ -967,25 +964,25 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>44490</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>44491</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>44494</v>
@@ -994,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>44496</v>
@@ -1003,25 +1000,22 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>44497</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>44498</v>
@@ -1030,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>44501</v>
@@ -1039,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>44503</v>
@@ -1048,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>44504</v>
@@ -1057,58 +1051,58 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>44505</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44508</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>44510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>44511</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <f t="shared" si="1"/>
-        <v>44505</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <f t="shared" si="1"/>
-        <v>44508</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <f t="shared" si="1"/>
-        <v>44510</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>44512</v>
+      </c>
+      <c r="B48" t="s">
         <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <f t="shared" si="1"/>
-        <v>44511</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>44512</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1117,7 +1111,7 @@
         <v>44515</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1126,10 +1120,10 @@
         <v>44517</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1138,10 +1132,10 @@
         <v>44518</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1150,7 +1144,7 @@
         <v>44519</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1165,7 +1159,7 @@
         <v>44524</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1174,10 +1168,10 @@
         <v>44525</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1186,10 +1180,10 @@
         <v>44526</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1198,7 +1192,7 @@
         <v>44529</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1207,10 +1201,10 @@
         <v>44531</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1219,7 +1213,7 @@
         <v>44532</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1228,7 +1222,7 @@
         <v>44533</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1237,7 +1231,7 @@
         <v>44536</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1246,7 +1240,7 @@
         <v>44538</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1255,15 +1249,15 @@
         <v>44539</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE8462-5641-420E-A760-7241A4EC8D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81FF74-3C5F-4A35-9E26-FFFE0D14B62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
+    <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
   <sheets>
     <sheet name="cmsc-150-schedule" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Chapter 10, If statements</t>
   </si>
   <si>
-    <t>Chapter 5 continued, Chapter 6 what is a programming language</t>
-  </si>
-  <si>
     <t>Chapter 14, Advanced looping problems</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>Chapter 4, The print function</t>
+  </si>
+  <si>
+    <t>Chapter 6 what is a programming language</t>
+  </si>
+  <si>
+    <t>Review Chapter 5, show API docs</t>
+  </si>
+  <si>
+    <t>Introduce Lab 2</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,7 +691,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -698,7 +704,7 @@
         <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,550 +720,562 @@
         <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44448</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>44449</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <f>A9+7</f>
         <v>44452</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <f t="shared" ref="A14:A18" si="0">A10+7</f>
-        <v>44454</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>44455</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>44456</v>
+        <f>A10+7</f>
+        <v>44454</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>44459</v>
+        <f t="shared" ref="A17:A20" si="0">A13+7</f>
+        <v>44455</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>44461</v>
+        <v>44456</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A63" si="1">A15+7</f>
-        <v>44462</v>
+        <f t="shared" si="0"/>
+        <v>44459</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>44463</v>
+        <f t="shared" si="0"/>
+        <v>44461</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>44466</v>
+        <f t="shared" ref="A21:A65" si="1">A17+7</f>
+        <v>44462</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>44473</v>
+        <v>44469</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>44475</v>
+        <v>44470</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>44482</v>
+        <v>44477</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>44483</v>
+        <v>44480</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>44484</v>
+        <v>44482</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>44487</v>
+        <v>44483</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>44490</v>
+        <v>44487</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>44491</v>
+        <v>44489</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>44494</v>
+        <v>44490</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>44496</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>44497</v>
+        <v>44494</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>44498</v>
+        <v>44496</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>44501</v>
+        <v>44497</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>44503</v>
+        <v>44498</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>44504</v>
+        <v>44501</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>44505</v>
+        <v>44503</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>44508</v>
+        <v>44504</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>44510</v>
+        <v>44505</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>44511</v>
+        <v>44508</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>44517</v>
+        <v>44512</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>44518</v>
+        <v>44515</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>44522</v>
+        <v>44518</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>44525</v>
-      </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>44529</v>
+        <v>44525</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>44531</v>
+        <v>44526</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>44532</v>
+        <v>44529</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>44533</v>
+        <v>44531</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f t="shared" si="1"/>
-        <v>44538</v>
+        <v>44533</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f t="shared" si="1"/>
+        <v>44536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f t="shared" si="1"/>
+        <v>44538</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <f t="shared" si="1"/>
         <v>44539</v>
       </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
         <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81FF74-3C5F-4A35-9E26-FFFE0D14B62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B04D7-5129-4EFE-BB88-4E96B72F049B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>Chapter 15, Introduction to lists</t>
   </si>
   <si>
-    <t>List problems</t>
-  </si>
-  <si>
     <t>In-class work on function problems, in-class work on 'if' statement problems</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>Introduce Lab 2</t>
+  </si>
+  <si>
+    <t>Chapter 15, Introduction to lists (continued)</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -704,7 +704,7 @@
         <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -720,7 +720,7 @@
         <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -729,13 +729,13 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -838,7 +838,7 @@
         <v>44463</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>44473</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>44477</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -931,7 +931,7 @@
         <v>44480</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -940,10 +940,10 @@
         <v>44482</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>44536</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1258,7 +1258,7 @@
         <v>44538</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1267,15 +1267,15 @@
         <v>44539</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
         <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B04D7-5129-4EFE-BB88-4E96B72F049B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490BCEAF-3438-4AC1-BD6F-13E108F7168D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Chapter 15, Introduction to lists (continued)</t>
+  </si>
+  <si>
+    <t>No class</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,6 +1002,9 @@
         <f t="shared" si="1"/>
         <v>44491</v>
       </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -1006,7 +1012,7 @@
         <v>44494</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1015,7 +1021,7 @@
         <v>44496</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -1039,7 +1045,7 @@
         <v>44498</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1048,7 +1054,7 @@
         <v>44501</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1057,7 +1063,7 @@
         <v>44503</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1078,7 +1084,7 @@
         <v>44505</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1087,7 +1093,7 @@
         <v>44508</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1096,7 +1102,7 @@
         <v>44510</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -1120,7 +1126,7 @@
         <v>44512</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1138,7 +1144,7 @@
         <v>44517</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490BCEAF-3438-4AC1-BD6F-13E108F7168D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E14806-AAAE-401C-B3D8-EDB4EA12294B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>Sprites and collisions / Moving sprites</t>
   </si>
   <si>
-    <t>Shooting sprites examples</t>
-  </si>
-  <si>
-    <t>Sprites and walls / placement and collision</t>
-  </si>
-  <si>
     <t>Sprites and walls / scrolling</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>No class</t>
+  </si>
+  <si>
+    <t>Continue moving sprites / Debugging</t>
+  </si>
+  <si>
+    <t>Shooting sprites examples / Sprites and walls / placement and collision</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,13 +652,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -666,19 +666,19 @@
         <v>44440</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -686,15 +686,15 @@
         <v>44441</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -707,7 +707,7 @@
         <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -715,7 +715,7 @@
         <v>44445</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -723,22 +723,22 @@
         <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>44449</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,7 +766,7 @@
         <v>44452</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,10 +775,10 @@
         <v>44454</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>44456</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>44459</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -817,10 +817,10 @@
         <v>44461</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -841,7 +841,7 @@
         <v>44463</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -850,7 +850,7 @@
         <v>44466</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -859,10 +859,10 @@
         <v>44468</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -883,7 +883,7 @@
         <v>44470</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>44473</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -901,10 +901,10 @@
         <v>44475</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>44477</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>44480</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,10 +943,10 @@
         <v>44482</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -955,7 +955,7 @@
         <v>44483</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>44484</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -973,7 +973,7 @@
         <v>44487</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -994,7 +994,7 @@
         <v>44490</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1012,7 +1012,7 @@
         <v>44494</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1021,10 +1021,10 @@
         <v>44496</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1033,10 +1033,10 @@
         <v>44497</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>44498</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1054,7 +1054,7 @@
         <v>44501</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
         <v>44503</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1072,10 +1072,10 @@
         <v>44504</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>44505</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>44508</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1102,10 +1102,10 @@
         <v>44510</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1114,10 +1114,10 @@
         <v>44511</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>44512</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,7 +1135,7 @@
         <v>44515</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1144,10 +1144,10 @@
         <v>44517</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1156,10 +1156,10 @@
         <v>44518</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
         <v>44519</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>44524</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1192,10 +1192,10 @@
         <v>44525</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1204,10 +1204,10 @@
         <v>44526</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1216,7 +1216,7 @@
         <v>44529</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1225,10 +1225,10 @@
         <v>44531</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>44532</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1246,7 +1246,7 @@
         <v>44533</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>44536</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1264,7 +1264,7 @@
         <v>44538</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1273,15 +1273,15 @@
         <v>44539</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E14806-AAAE-401C-B3D8-EDB4EA12294B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580B6C3-0FA8-4113-9FE6-995C3DEB9C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Shooting sprites examples / Sprites and walls / placement and collision</t>
+  </si>
+  <si>
+    <t>Searching - reading from a file and linear search</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,7 +1066,7 @@
         <v>44503</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,7 +1087,7 @@
         <v>44505</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1093,7 +1096,7 @@
         <v>44508</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1102,7 +1105,7 @@
         <v>44510</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
@@ -1126,7 +1129,7 @@
         <v>44512</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1168,13 +1171,16 @@
         <v>44519</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>44522</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580B6C3-0FA8-4113-9FE6-995C3DEB9C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5BE3EA-B66F-4AA9-AFC8-E83918155055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -81,18 +81,12 @@
     <t>Swapping values and the selection sort</t>
   </si>
   <si>
-    <t>Lab 12 - Final lab, part 1</t>
-  </si>
-  <si>
     <t>Print formatting / Exceptions</t>
   </si>
   <si>
     <t>Thanksgiving Break</t>
   </si>
   <si>
-    <t>Quantitative Reasoning Assignment</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -168,18 +162,9 @@
     <t>Chapter 9, Drawing with Functions / If statements</t>
   </si>
   <si>
-    <t>Sorting Worksheet</t>
-  </si>
-  <si>
-    <t>Insertion sort / Explain final lab</t>
-  </si>
-  <si>
     <t>Lab 11 @ 2:40 pm, Sorting worksheet, Demo part 1</t>
   </si>
   <si>
-    <t>Demo part 2</t>
-  </si>
-  <si>
     <t>Have PyCharm, Python, and Git installed</t>
   </si>
   <si>
@@ -240,9 +225,6 @@
     <t>Final time, show off projects</t>
   </si>
   <si>
-    <t>Lab 12 - Final lab, part 3</t>
-  </si>
-  <si>
     <t>Recursion / Work on final lab</t>
   </si>
   <si>
@@ -286,6 +268,21 @@
   </si>
   <si>
     <t>Searching - reading from a file and linear search</t>
+  </si>
+  <si>
+    <t>Insertion sort</t>
+  </si>
+  <si>
+    <t>Lab 12 &amp; absolutely everything by 3 pm.</t>
+  </si>
+  <si>
+    <t>Sorting Worksheet / Lab</t>
+  </si>
+  <si>
+    <t>Quantitative Reasoning Assignment / Lab</t>
+  </si>
+  <si>
+    <t>Work on Lab 12 - Final lab</t>
   </si>
 </sst>
 </file>
@@ -643,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD8A519-E560-43D5-A2CF-27E938C1D1E1}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,13 +652,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -669,19 +666,19 @@
         <v>44440</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,15 +686,15 @@
         <v>44441</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,7 +707,7 @@
         <v>44442</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -718,7 +715,7 @@
         <v>44445</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,22 +723,22 @@
         <v>44447</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -752,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -760,7 +757,7 @@
         <v>44449</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -769,7 +766,7 @@
         <v>44452</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -778,10 +775,10 @@
         <v>44454</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -793,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -802,7 +799,7 @@
         <v>44456</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -811,7 +808,7 @@
         <v>44459</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -820,10 +817,10 @@
         <v>44461</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -835,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -844,7 +841,7 @@
         <v>44463</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -853,7 +850,7 @@
         <v>44466</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -862,10 +859,10 @@
         <v>44468</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -877,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -886,7 +883,7 @@
         <v>44470</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -895,7 +892,7 @@
         <v>44473</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -904,10 +901,10 @@
         <v>44475</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -919,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -928,7 +925,7 @@
         <v>44477</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -937,7 +934,7 @@
         <v>44480</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -946,10 +943,10 @@
         <v>44482</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -958,7 +955,7 @@
         <v>44483</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -967,7 +964,7 @@
         <v>44484</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -976,7 +973,7 @@
         <v>44487</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -988,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,7 +994,7 @@
         <v>44490</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1015,7 +1012,7 @@
         <v>44494</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1024,10 +1021,10 @@
         <v>44496</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1036,10 +1033,10 @@
         <v>44497</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1066,7 +1063,7 @@
         <v>44503</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1078,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1096,7 +1093,7 @@
         <v>44508</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1108,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1120,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1147,10 +1144,7 @@
         <v>44517</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1162,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1171,7 +1165,7 @@
         <v>44519</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1180,7 +1174,7 @@
         <v>44522</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1189,7 +1183,7 @@
         <v>44524</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1198,10 +1192,7 @@
         <v>44525</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1210,10 +1201,7 @@
         <v>44526</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1222,7 +1210,7 @@
         <v>44529</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1231,10 +1219,10 @@
         <v>44531</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1243,7 +1231,10 @@
         <v>44532</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1252,7 +1243,7 @@
         <v>44533</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1261,7 +1252,7 @@
         <v>44536</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1270,24 +1261,27 @@
         <v>44538</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>44539</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/source/cmsc-150-schedule.xlsx
+++ b/source/cmsc-150-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\projects\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8397C1-D672-4F0F-87DB-7BD8293D6357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315DFB1-FB46-4615-ADD8-9FD30439B3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1500" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
+    <workbookView xWindow="20750" yWindow="610" windowWidth="17480" windowHeight="19200" xr2:uid="{BA72606F-92E8-4844-A28C-8C02A8CBCD15}"/>
   </bookViews>
   <sheets>
     <sheet name="cmsc-150-schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Lab 1 - Print statements and version control systems</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Chapter 18, Using the Window class</t>
+  </si>
+  <si>
+    <t>No class - follow Platformers tutorial</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1130,7 @@
         <v>44517</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
